--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,369 +19,369 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
-  <si>
-    <t xml:space="preserve">Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIFI not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, The wifi in my room is not working. I live in Room 7 of SH-3. Please help me with this. Thanks, XYZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WiFi Inaccessible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, I can't access the wifi through my phone. Please help. With best regards, Adit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wifi not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir, I can't access the wifi from my laptop. Please help me fix this. Best, Himanshu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wifi broken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, The wifi has been very erratic on my device. I need this urgently. Please help me fix this. Regards, Deb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet not functioning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My internet has not been working properly for the past few days. Please solve the issue. Thanking you, Jai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clicker for lecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, Please provide a clicker from room no. 2 in the new academic block for Prof. Kothari's lecture starting at 5 PM. Best Regards, Vijay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remote required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We have a talk scheduled for 2 PM in AC-100. Please provide the projector remote for the same. Thanks, Ayush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projector Remote for Lecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, We require a projector remote for a lecture at LR-106 starting at 10 PM. Please do the necessary. Regards, Mohit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentation Clicker required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, We require a clicker for TR-106 from 7 PM. Please help us with this. Regards, Rohit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remote for talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi, A talk will be held in AC-109  today, starting at 11 AM. Please provide a remote controller for the projector for the same. Thanks and regards, Hari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projector not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, The projector in room no. 25 is not working. Please help us fix this at the earliest. Regards, Tom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speakers broken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, The speakers in TR-106 are not working. We will be having a lecture in this room in a few minutes. Please fix this issue asap. Regards, ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mic required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, We will be hosting a quiz competition in LR-205 from 10 PM for which we require a mic. Please do the necessary. Best, Jeet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microphone required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir, The mic in room no. 230 is missing. Please provide us with a mic in this room as we have an event starting in the next hour. Best Regards, Alvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speakers not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello, The speakers seem to be broken in LT-106. Please solve this issue as soon as possible. Best regards, Dot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projector Inaccessible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi, We have an event scheduled for 6 PM in MR-101. We have been trying to connect the projector to our laptop for some time but have been failing. Please help us with this. Thanks and regards, Jeevan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocking ID Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, I lost my ID card the last Wednesday and have been unable to find it since. Please block my ID card till I find it or buy a new one. Thanking you, Sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, I seem to have lost my ID card and can't find it. Could you please check the transactions made from my ID card and block it if there have been any. Best regards, Shab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost ID Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello, I have misplaced my ID card and want to buy a new one. Where and when can I buy a new one ? Thanking you, Ghalib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New ID Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greetings, I have lost my ID card and would like to issue a new one for myself. What procedure do I need to follow for the same ? Regards, Rumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wifi Login Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, I haven't received my WiFi login details. Please provide me with the details at the earliest. Regards, Mary</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="243">
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>WIFI not working</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, The wifi in my room is not working. I live in Room 7 of SH-3. Please help me with this. Thanks, XYZ</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>WiFi Inaccessible</t>
+  </si>
+  <si>
+    <t>Dear All, I can't access the wifi through my phone. Please help. With best regards, Adit</t>
+  </si>
+  <si>
+    <t>Wifi not working</t>
+  </si>
+  <si>
+    <t>Dear Sir, I can't access the wifi from my laptop. Please help me fix this. Best, Himanshu</t>
+  </si>
+  <si>
+    <t>Wifi broken</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, The wifi has been very erratic on my device. I need this urgently. Please help me fix this. Regards, Deb</t>
+  </si>
+  <si>
+    <t>Internet not functioning</t>
+  </si>
+  <si>
+    <t>My internet has not been working properly for the past few days. Please solve the issue. Thanking you, Jai</t>
+  </si>
+  <si>
+    <t>Clicker for lecture</t>
+  </si>
+  <si>
+    <t>Dear All, Please provide a clicker from room no. 2 in the new academic block for Prof. Kothari's lecture starting at 5 PM. Best Regards, Vijay</t>
+  </si>
+  <si>
+    <t>Remote required</t>
+  </si>
+  <si>
+    <t>We have a talk scheduled for 2 PM in AC-100. Please provide the projector remote for the same. Thanks, Ayush</t>
+  </si>
+  <si>
+    <t>Projector Remote for Lecture</t>
+  </si>
+  <si>
+    <t>Dear All, We require a projector remote for a lecture at LR-106 starting at 10 PM. Please do the necessary. Regards, Mohit</t>
+  </si>
+  <si>
+    <t>Presentation Clicker required</t>
+  </si>
+  <si>
+    <t>Dear All, We require a clicker for TR-106 from 7 PM. Please help us with this. Regards, Rohit</t>
+  </si>
+  <si>
+    <t>Remote for talk</t>
+  </si>
+  <si>
+    <t>Hi, A talk will be held in AC-109  today, starting at 11 AM. Please provide a remote controller for the projector for the same. Thanks and regards, Hari</t>
+  </si>
+  <si>
+    <t>Projector not working</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, The projector in room no. 25 is not working. Please help us fix this at the earliest. Regards, Tom</t>
+  </si>
+  <si>
+    <t>Speakers broken</t>
+  </si>
+  <si>
+    <t>Dear All, The speakers in TR-106 are not working. We will be having a lecture in this room in a few minutes. Please fix this issue asap. Regards, ABC</t>
+  </si>
+  <si>
+    <t>Mic required</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, We will be hosting a quiz competition in LR-205 from 10 PM for which we require a mic. Please do the necessary. Best, Jeet</t>
+  </si>
+  <si>
+    <t>Microphone required</t>
+  </si>
+  <si>
+    <t>Dear Sir, The mic in room no. 230 is missing. Please provide us with a mic in this room as we have an event starting in the next hour. Best Regards, Alvin</t>
+  </si>
+  <si>
+    <t>Speakers not working</t>
+  </si>
+  <si>
+    <t>Hello, The speakers seem to be broken in LT-106. Please solve this issue as soon as possible. Best regards, Dot</t>
+  </si>
+  <si>
+    <t>Projector Inaccessible</t>
+  </si>
+  <si>
+    <t>Hi, We have an event scheduled for 6 PM in MR-101. We have been trying to connect the projector to our laptop for some time but have been failing. Please help us with this. Thanks and regards, Jeevan</t>
+  </si>
+  <si>
+    <t>Blocking ID Card</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, I lost my ID card the last Wednesday and have been unable to find it since. Please block my ID card till I find it or buy a new one. Thanking you, Sam</t>
+  </si>
+  <si>
+    <t>Lost ID</t>
+  </si>
+  <si>
+    <t>Dear All, I seem to have lost my ID card and can't find it. Could you please check the transactions made from my ID card and block it if there have been any. Best regards, Shab</t>
+  </si>
+  <si>
+    <t>Lost ID Card</t>
+  </si>
+  <si>
+    <t>Hello, I have misplaced my ID card and want to buy a new one. Where and when can I buy a new one ? Thanking you, Ghalib</t>
+  </si>
+  <si>
+    <t>New ID Card</t>
+  </si>
+  <si>
+    <t>Greetings, I have lost my ID card and would like to issue a new one for myself. What procedure do I need to follow for the same ? Regards, Rumi</t>
+  </si>
+  <si>
+    <t>Wifi Login Details</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, I haven't received my WiFi login details. Please provide me with the details at the earliest. Regards, Mary</t>
   </si>
   <si>
     <t xml:space="preserve">Forgotten Login Details
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dear All, I seem to have forgotten the password to my internet access account. Please help me reset my password for the same. Thanking you, Shourya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorrect Wifi Credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, The WiFi details given to me during the orientation week don't seem to work. Please provide me with new details so that I can access my WiFi. Best, Jakka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, I do not remember the details to my WiFi account. Please provide me with new login details. Thankfully yours, Anchit Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WiFi Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am not able to access the internet as I do not have my WiFi login details. Please provide me with the same. Thanking you, Gokul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course Drop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, I want to drop my FC in EVS. Please do the needful. Regards, Aloha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC Course Drop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, I want to drop my SPF foundation course. Please drop it from my list of courses. Regards, Kamlesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR-101 Course Drop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, Please drop my introduction to International Relations course for this semester. Thanks and regards, Jagdish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permission For Joining Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, Professor Abir Bazaz has granted me permission to join his FC (please refer to the forwarded message) in Literature and the World. Please add me to his class. Regards, Amjad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS Course Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, I need to do the compulsary CTS course in Math for my minor. However, the course registration page does not have it listed. Please register me for this course. Best Regards, Akbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, Please register me for the the Theory of Computation course. I have the permission from Prof. Mahavir Jhawar. Thanks and Regards, Halwai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query regarding summer course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, I wanted to know if the FC in Indian Civilisations will be offered in the coming summer semester. Please do let me know. Regards, Hanuman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS courses next semester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello, I am a likely CS major and wanted to know about the courses being offered in the next semester. Is there a course list that I can refer to ? It would be really helpful. Thanking you, Kriti Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir/Ma'am, Do we have a course list that we can refer to for the next semester? I wanted to prepare accordingly during my summer vacations. Regards, Koishore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upcoming Physics Courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, I have been in a fix deciding my majors between Maths and Physics. Could I gain access to the course and faculty list for the next semester so that I could gain some clarity. I would be really grateful. Thanks and regards, Yash Dhudhul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Timing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, What are the course registration dates for 2nd years for the coming semester ? I need to plan my travel accordingly. Thanks, Rhonda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS Timings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello, The timings for the DS for the Math FC are not visible on the timetable. Could you please share the timings with me ? Regards, Jim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIT-306 Timings</t>
+    <t>Dear All, I seem to have forgotten the password to my internet access account. Please help me reset my password for the same. Thanking you, Shourya</t>
+  </si>
+  <si>
+    <t>Incorrect Wifi Credentials</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, The WiFi details given to me during the orientation week don't seem to work. Please provide me with new details so that I can access my WiFi. Best, Jakka</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, I do not remember the details to my WiFi account. Please provide me with new login details. Thankfully yours, Anchit Jain</t>
+  </si>
+  <si>
+    <t>WiFi Details</t>
+  </si>
+  <si>
+    <t>I am not able to access the internet as I do not have my WiFi login details. Please provide me with the same. Thanking you, Gokul</t>
+  </si>
+  <si>
+    <t>Course Drop</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, I want to drop my FC in EVS. Please do the needful. Regards, Aloha</t>
+  </si>
+  <si>
+    <t>OAA</t>
+  </si>
+  <si>
+    <t>FC Course Drop</t>
+  </si>
+  <si>
+    <t>Dear All, I want to drop my SPF foundation course. Please drop it from my list of courses. Regards, Kamlesh</t>
+  </si>
+  <si>
+    <t>IR-101 Course Drop</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, Please drop my introduction to International Relations course for this semester. Thanks and regards, Jagdish</t>
+  </si>
+  <si>
+    <t>Permission For Joining Course</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, Professor Abir Bazaz has granted me permission to join his FC (please refer to the forwarded message) in Literature and the World. Please add me to his class. Regards, Amjad</t>
+  </si>
+  <si>
+    <t>CTS Course Registration</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, I need to do the compulsary CTS course in Math for my minor. However, the course registration page does not have it listed. Please register me for this course. Best Regards, Akbar</t>
+  </si>
+  <si>
+    <t>Course Registration</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, Please register me for the the Theory of Computation course. I have the permission from Prof. Mahavir Jhawar. Thanks and Regards, Halwai</t>
+  </si>
+  <si>
+    <t>Query regarding summer course</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, I wanted to know if the FC in Indian Civilisations will be offered in the coming summer semester. Please do let me know. Regards, Hanuman</t>
+  </si>
+  <si>
+    <t>CS courses next semester</t>
+  </si>
+  <si>
+    <t>Hello, I am a likely CS major and wanted to know about the courses being offered in the next semester. Is there a course list that I can refer to ? It would be really helpful. Thanking you, Kriti Sharma</t>
+  </si>
+  <si>
+    <t>List of courses</t>
+  </si>
+  <si>
+    <t>Sir/Ma'am, Do we have a course list that we can refer to for the next semester? I wanted to prepare accordingly during my summer vacations. Regards, Koishore</t>
+  </si>
+  <si>
+    <t>Upcoming Physics Courses</t>
+  </si>
+  <si>
+    <t>Dear All, I have been in a fix deciding my majors between Maths and Physics. Could I gain access to the course and faculty list for the next semester so that I could gain some clarity. I would be really grateful. Thanks and regards, Yash Dhudhul</t>
+  </si>
+  <si>
+    <t>Registration Timing</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, What are the course registration dates for 2nd years for the coming semester ? I need to plan my travel accordingly. Thanks, Rhonda</t>
+  </si>
+  <si>
+    <t>DS Timings</t>
+  </si>
+  <si>
+    <t>Hello, The timings for the DS for the Math FC are not visible on the timetable. Could you please share the timings with me ? Regards, Jim</t>
+  </si>
+  <si>
+    <t>LIT-306 Timings</t>
   </si>
   <si>
     <t xml:space="preserve">Hi, The course timetable shows two time slots for LIT-306. Could you please send the correct timings for this course ? Best, Sourabh
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dear Sir, What are the timings for the DS of the courses Lit and the World and Trends in History? Regards, Pakalu</t>
+    <t>Dear Sir, What are the timings for the DS of the courses Lit and the World and Trends in History? Regards, Pakalu</t>
   </si>
   <si>
     <t xml:space="preserve">Course Registration Dates
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dear All, I am in an area of low connectivity and hence would like to know the timings for the course registration in advance. This will help me prepare for this event in advance. Regards, Aditya Halli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS Registrarion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir?Ma'am, The course registration page does not have an option for DS registration. Are there separate dates for this ? If so when ? Regards, Shawty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room booking for quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Ma'am, We want to book LT-106 for a quiz on Tuesday from 10 PM onwards. Please book the room for us. Regards, QuizSoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classroom for event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, We are conducting an event for the undergraduates on Friday from 10 PM onwards. Please book any room for us with a minimum of 50 seats. Thanking you, Kirdaar</t>
+    <t>Dear All, I am in an area of low connectivity and hence would like to know the timings for the course registration in advance. This will help me prepare for this event in advance. Regards, Aditya Halli</t>
+  </si>
+  <si>
+    <t>DS Registrarion</t>
+  </si>
+  <si>
+    <t>Sir?Ma'am, The course registration page does not have an option for DS registration. Are there separate dates for this ? If so when ? Regards, Shawty</t>
+  </si>
+  <si>
+    <t>Room booking for quiz</t>
+  </si>
+  <si>
+    <t>Dear Ma'am, We want to book LT-106 for a quiz on Tuesday from 10 PM onwards. Please book the room for us. Regards, QuizSoc</t>
+  </si>
+  <si>
+    <t>OSL</t>
+  </si>
+  <si>
+    <t>Classroom for event</t>
+  </si>
+  <si>
+    <t>Dear All, We are conducting an event for the undergraduates on Friday from 10 PM onwards. Please book any room for us with a minimum of 50 seats. Thanking you, Kirdaar</t>
   </si>
   <si>
     <t xml:space="preserve">Room booking </t>
   </si>
   <si>
-    <t xml:space="preserve">Dear Ma'am, Could you please book AC-120 for our slam poetry event on Wednesday ? The event will start from 7 PM. Best Regards, Red Brick Words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFE booking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, Is the CFE free on Monday from 10 PM ? We would like to conduct our trading league event there. Please book it for us if free. Best Regards, ABCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimbursement for floor event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, I conducted an event for my floor on the 26th of this month and submitted the bills for the expenses. I haven't received my reimbursement yet. When can I expect to receive the same ? Best Regards, Ahaan Josh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimbursement for Fresher's Quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, I haven't received the reimbursement for the Fresher's Quiz prizes. Please let me know when I can collect the same. Regards, Raghavendra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel Reimbursement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ma'am, As was informed earlier, I and Shubham travelled to Chandigarh for Khalsa Debating League for which we were promised reimbursement. However, we are yet to receive it. Please do the necessary at the earliest. Regards, Mayukh Noir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concert Fee Reimbursement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir/Ma'am, I had cancelled my tickets for the concert that was held on the 10th of this month(find the email as forward). I however am yet to get my reimbursement for the same. Please let me know when I can collect it. Thanking you, Shahshank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposition For Music Fest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, We have a rough blue print ready for the annual music fest that we host in our college. Could we meet sometime during this week to discuss the same ? Regards, Vistaar</t>
+    <t>Dear Ma'am, Could you please book AC-120 for our slam poetry event on Wednesday ? The event will start from 7 PM. Best Regards, Red Brick Words</t>
+  </si>
+  <si>
+    <t>CFE booking</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, Is the CFE free on Monday from 10 PM ? We would like to conduct our trading league event there. Please book it for us if free. Best Regards, ABCL</t>
+  </si>
+  <si>
+    <t>Reimbursement for floor event</t>
+  </si>
+  <si>
+    <t>Dear All, I conducted an event for my floor on the 26th of this month and submitted the bills for the expenses. I haven't received my reimbursement yet. When can I expect to receive the same ? Best Regards, Ahaan Josh</t>
+  </si>
+  <si>
+    <t>Reimbursement for Fresher's Quiz</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, I haven't received the reimbursement for the Fresher's Quiz prizes. Please let me know when I can collect the same. Regards, Raghavendra</t>
+  </si>
+  <si>
+    <t>Travel Reimbursement</t>
+  </si>
+  <si>
+    <t>Ma'am, As was informed earlier, I and Shubham travelled to Chandigarh for Khalsa Debating League for which we were promised reimbursement. However, we are yet to receive it. Please do the necessary at the earliest. Regards, Mayukh Noir</t>
+  </si>
+  <si>
+    <t>Concert Fee Reimbursement</t>
+  </si>
+  <si>
+    <t>Sir/Ma'am, I had cancelled my tickets for the concert that was held on the 10th of this month(find the email as forward). I however am yet to get my reimbursement for the same. Please let me know when I can collect it. Thanking you, Shahshank</t>
+  </si>
+  <si>
+    <t>Proposition For Music Fest</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, We have a rough blue print ready for the annual music fest that we host in our college. Could we meet sometime during this week to discuss the same ? Regards, Vistaar</t>
   </si>
   <si>
     <t xml:space="preserve">Concern Regarding Common Spaces
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, I have noticed a very serious issue regarding the use of common rooms in our residences. I would like to discuss the same with you at the earliest. Do let me know of a suitable time and date for the same. Thanks and regards,Harbhajan</t>
+    <t>Dear Sir/Ma'am, I have noticed a very serious issue regarding the use of common rooms in our residences. I would like to discuss the same with you at the earliest. Do let me know of a suitable time and date for the same. Thanks and regards,Harbhajan</t>
   </si>
   <si>
     <t xml:space="preserve">QuizFest Discussion
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dear All, As per our last discussion we had a larger discussion with our entire quizsoc community for the fest. We would like to share the details of the discussion and further discuss the event with you. Can we meet sometime after lunch tomorrow for this ? Regards, QuizSoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Donation Camp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Ma'am, We wanted to discuss some concerns regarding the logistics of the blood donation camp that will be held on Saturday this week. When is a good time tomorrow for us to meet and discuss this ? Regards, Rotaract Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiz Cancellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, We have decided to cancel the quiz scheduled for this Tueday. Please cancel the room booking done for the same. We apologise for any inconvenience caused. Regards, QuizSoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Sir/Ma'am, The talk on Young's Old Theorem by Prof. Alok Goswami has been cancelled. Please do the necessary cancellations for the same. Regards, Maths Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly Lecture Cancelled</t>
+    <t>Dear All, As per our last discussion we had a larger discussion with our entire quizsoc community for the fest. We would like to share the details of the discussion and further discuss the event with you. Can we meet sometime after lunch tomorrow for this ? Regards, QuizSoc</t>
+  </si>
+  <si>
+    <t>Blood Donation Camp</t>
+  </si>
+  <si>
+    <t>Dear Ma'am, We wanted to discuss some concerns regarding the logistics of the blood donation camp that will be held on Saturday this week. When is a good time tomorrow for us to meet and discuss this ? Regards, Rotaract Club</t>
+  </si>
+  <si>
+    <t>Quiz Cancellation</t>
+  </si>
+  <si>
+    <t>Dear All, We have decided to cancel the quiz scheduled for this Tueday. Please cancel the room booking done for the same. We apologise for any inconvenience caused. Regards, QuizSoc</t>
+  </si>
+  <si>
+    <t>Talk Cancelled</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, The talk on Young's Old Theorem by Prof. Alok Goswami has been cancelled. Please do the necessary cancellations for the same. Regards, Maths Department</t>
+  </si>
+  <si>
+    <t>Weekly Lecture Cancelled</t>
   </si>
   <si>
     <t xml:space="preserve">Hello, The lecture scheduled for this Thursday as a part of the Economics Lecture Series has been cancelled by the guest. Please cancel the room booked for the same. We apologise for the inconvenience. Best Regards, The Economic Society
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Room Booking Cancellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir/Ma'am, The slam poetry meet has been postponed to the week after. Please cancel the room booking made earlier. We apologise for the inconvenience caused. Regards, Red Bricks Society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditorium Booking</t>
+    <t>Room Booking Cancellation</t>
+  </si>
+  <si>
+    <t>Sir/Ma'am, The slam poetry meet has been postponed to the week after. Please cancel the room booking made earlier. We apologise for the inconvenience caused. Regards, Red Bricks Society</t>
+  </si>
+  <si>
+    <t>Auditorium Booking</t>
   </si>
   <si>
     <t xml:space="preserve">Dear Sir/Ma'am, We would like to host our open mic night in the auditorium this Thursday from 9 PM. Will it be free ? If yes, please book the room for us. </t>
@@ -392,23 +391,524 @@
 CS-205 course drop</t>
   </si>
   <si>
-    <t xml:space="preserve">Please drop CS-205 from my course list. Thanks and Regards, Deshbandhu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysfunctional Rack PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear All, The Rack PC is not switching on in LR-105. Please fix this system at the earliest. Regards, OAA</t>
+    <t>Please drop CS-205 from my course list. Thanks and Regards, Deshbandhu</t>
+  </si>
+  <si>
+    <t>Dysfunctional Rack PC</t>
+  </si>
+  <si>
+    <t>Dear All, The Rack PC is not switching on in LR-105. Please fix this system at the earliest. Regards, OAA</t>
+  </si>
+  <si>
+    <t>Course drop</t>
+  </si>
+  <si>
+    <t>Hi,
+I would like to drop the EVS FC that I have taken for this sem.
+Thank You
+Regards
+Mohan K</t>
+  </si>
+  <si>
+    <t>Course drop for the upcoming semester</t>
+  </si>
+  <si>
+    <t>Hi Admin,
+I would like to drop my course Social Psychology PSY - 202 (Professor Chan).
+Hope to hear from you soon.
+Best Regards
+Jai Ram</t>
+  </si>
+  <si>
+    <t>Course Change</t>
+  </si>
+  <si>
+    <t>Hi,
+Due to the changes in the timetable for CS courses, two of my major courses are clashing. Professor Jhawar informed us that we will have to drop one off our major courses and opt for it next sem. So I would like to drop my Computer Architecture course (CS-204).
+Thank You
+Prashanth</t>
+  </si>
+  <si>
+    <t>Dropping Math FC</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, I have taken 6 courses instead of 5. I wold like drop the Math Foundation Course that I have taken for this sem. 
+Regards
+Raghav M</t>
+  </si>
+  <si>
+    <t>Removal of Course</t>
+  </si>
+  <si>
+    <t>OAA, I have decide to unlist myself from the PSY-202 Cognitive Psychology Course. I hope the course can be dropped as soon as possible.
+Thanks
+Vinitha S</t>
+  </si>
+  <si>
+    <t>Switch Courses</t>
+  </si>
+  <si>
+    <t>Hi,
+I would like to know if I can change my course for the summer programme at ashoka. I registered for Literature and the world course. I would like to change it to the Trends in History course. Please add the appropriate course as soon as possible.
+Thanks
+Preetham</t>
+  </si>
+  <si>
+    <t>Add Course</t>
+  </si>
+  <si>
+    <t>Hi,
+I am a part of the intro to psych course 
+PSY-101-1, I would like to switch to the intro course offered by professor Grant Rich
+PSY-101-2. Both classes occur on the same slots. I hope this can be done.
+Regards 
+Sunil Grover</t>
+  </si>
+  <si>
+    <t>Adding 5th Course</t>
+  </si>
+  <si>
+    <t>Dear Sir/Madam, I have taken 4 courses and a co-curricular, I would like to add a fifth course. Please add (FC-001) Economics to my course list.
+Best Regards
+Siddharth S</t>
+  </si>
+  <si>
+    <t>Co-curricular enlisting</t>
+  </si>
+  <si>
+    <t>OAA, Please enlist me to the co-curricular Spanish for Backpackers, if there is no waiting.
+Thank you
+Regards
+Ashish Sharma</t>
+  </si>
+  <si>
+    <t>Adding Major Course</t>
+  </si>
+  <si>
+    <t>Hi, The Major course CS - 303 has been offered newly, can you please add me to the course.
+Warm Regards
+Jeeva M</t>
+  </si>
+  <si>
+    <t>Timings for the CS-201 course</t>
+  </si>
+  <si>
+    <t>Hey, I am a Computer Science major. The course timings for the course CS - 201 changed. Can you plese tell me the new timings.
+Thanks
+Rohan Joseph</t>
+  </si>
+  <si>
+    <t>Timetable for CS Intro course</t>
+  </si>
+  <si>
+    <t>Hi Admin, What are the timings for the CS-101 course?
+Brochak</t>
+  </si>
+  <si>
+    <t>Course Timings</t>
+  </si>
+  <si>
+    <t>Dear OAA, What are the course timings for both time slots of FC-005 Lit and The World?
+Warm Regards
+Shankar</t>
+  </si>
+  <si>
+    <t>New timings for the CT course</t>
+  </si>
+  <si>
+    <t>Hi, The timings for CT-104 has changed, can you please give me the new timings?
+Thank You
+Regards
+Sachin M</t>
+  </si>
+  <si>
+    <t>Timings</t>
+  </si>
+  <si>
+    <t>Hey, Can you please tell me the timings for POL-206 course.
+Best Wishes
+Rishab R</t>
+  </si>
+  <si>
+    <t>Course list</t>
+  </si>
+  <si>
+    <t>OAA, I am a Math major. I was wondering what courses are going to be offered next semester.
+Regards
+Vineet G</t>
+  </si>
+  <si>
+    <t>Political Science Courses</t>
+  </si>
+  <si>
+    <t>Dear Sir/Madam, I am a prospective Pol Science major, what are the courses on offer next semester?
+Best
+Harshita Sen</t>
+  </si>
+  <si>
+    <t>Interdicsplinary Major Courses</t>
+  </si>
+  <si>
+    <t>Sir/Ma'am, what are the courses being offered for CS-Math interdicsiplinary major?
+Regards
+Paul M</t>
+  </si>
+  <si>
+    <t>Monsoon Sem courses</t>
+  </si>
+  <si>
+    <t>Hi, I wanted to know the Philosophy Courses that will be offered in the monsoon semester.
+Regards
+Richa</t>
+  </si>
+  <si>
+    <t>Summer Semester Courses</t>
+  </si>
+  <si>
+    <t>OAA, Can you please let me know the courses being offered in the Summer Semester 2017. 
+Best Regards
+Pramod N</t>
+  </si>
+  <si>
+    <t>Course Reistration Timings</t>
+  </si>
+  <si>
+    <t>Hi Admin, When does the Course registration begin?
+Regards
+Shakul M</t>
+  </si>
+  <si>
+    <t>DS Registration</t>
+  </si>
+  <si>
+    <t>Sir/Madam, Is the DS registration happening tomorrow?
+Thank You
+Vinayak Nair</t>
+  </si>
+  <si>
+    <t>DS Selection timings</t>
+  </si>
+  <si>
+    <t>Hi, Can you please let me know the exact timings for the DS registration.
+Regards
+Akhil Ghedu</t>
+  </si>
+  <si>
+    <t>Registration of courses</t>
+  </si>
+  <si>
+    <t>Hi, I want to know the tentative dates for the course registration for spring semester 2016.
+Best Wishes
+Rithwik M</t>
+  </si>
+  <si>
+    <t>2nd year Course registration</t>
+  </si>
+  <si>
+    <t>Dear Admin, When does the course registration for the second years begin and how long will it be open for?
+Thanks
+Shivani K</t>
+  </si>
+  <si>
+    <t>Guest Lecture (Christopher Manning)</t>
+  </si>
+  <si>
+    <t>Dear Sir/Madam, I want to book the room TR-103 for a Guest Lecture on Information Retrieval on 15 October 2017
+Thank You
+Best Regards
+Ashish Sureka</t>
+  </si>
+  <si>
+    <t>Speedcubing Tournament</t>
+  </si>
+  <si>
+    <t>Hi, I need a 200 seater classroom, preferably TR-106 to conduct an inter college speedcubing tournament. Hope to hear from you soon regarding the same.
+Best Regards
+Krishna M</t>
+  </si>
+  <si>
+    <t>Movie Screening</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, We wanted to book the room AC-007 to screen a movie as a part of our course work. Kindly confirm the booking as soon as possible.
+Yours Thankfully
+Dibyendu Mishra</t>
+  </si>
+  <si>
+    <t>Studio Booking</t>
+  </si>
+  <si>
+    <t>Sir/Madam, I would like to book the Studio on 4th November to record albums by Ashoka's music society (Vistaar). Kindly let me know as soon as possible.
+Regards
+Anjali Goyal</t>
+  </si>
+  <si>
+    <t>Booking Cancellation</t>
+  </si>
+  <si>
+    <t>OSL, I would like to cancel the room booking for AC-110 on 2 Feb 2017. Can the booking be shifted by one week?
+Best Regards
+Mihika C</t>
+  </si>
+  <si>
+    <t>Alloted room cancellation</t>
+  </si>
+  <si>
+    <t>Hi, Another person wanted to book the same alloted room. I have spoken to the person and agreed to move my booking for later.
+Can you please cancel my booking for TR-206 on March 1st 2017.
+Thanks
+Regards
+Priyanka</t>
+  </si>
+  <si>
+    <t>Quiz venue shifted</t>
+  </si>
+  <si>
+    <t>Hi, AC-109 was booked for the Tata Crucible Quiz on the 18th of September,But due to increased participation we are planning to move to the Mini Auditorium. Please cancel our booking of the aforementioned room.
+Thank you
+Best Regards
+Ashwin Goyal</t>
+  </si>
+  <si>
+    <t>ID Event Cancellation</t>
+  </si>
+  <si>
+    <t>Dear Sir/Madam, As a part of the ID team I would like to inform you that we are planning to cancel the event for this semester. Hence you can cancel our booking of the auditorium for the chosen date.
+Yours Thankfully
+Sankalp Garud</t>
+  </si>
+  <si>
+    <t>Fest Logistics</t>
+  </si>
+  <si>
+    <t>Sir/Ma'am, The fest committee would like to discuss the logistics for various events. What time would be suitable?
+Thanks you
+Regards
+Ribhav Sharma</t>
+  </si>
+  <si>
+    <t>Concern regarding classroom cleanliness</t>
+  </si>
+  <si>
+    <t>Respected Sir/Madam, I would like to discuss problems regarding classroom cleanliness. Of lately I have noticed lot of litter lying around in classrooms. It would be great if we could work towards a solution.
+When can we meet regarding the same?
+Yours Sincerely
+Arnav Dhal</t>
+  </si>
+  <si>
+    <t>Dorm Olympics 2017</t>
+  </si>
+  <si>
+    <t>Respected Sir/Ma'am, As a part of the Residence Life Committee, we are planning to organize an inter-dorm event. We would like to discuss the logistics regarding the same.
+Please do let us know what the best time would be.
+Thanks
+Cheers
+Kunal Oak</t>
+  </si>
+  <si>
+    <t>Study Abroad Fair</t>
+  </si>
+  <si>
+    <t>Hi, Some of us from the student body are in touch with people who can organize a study abroad fair of sorts. Would like to discuss details regarding the same. When can we meet?
+Regards
+Akshaya N</t>
+  </si>
+  <si>
+    <t>Summer Abroad Reimbursement</t>
+  </si>
+  <si>
+    <t>Dear Sir/Madam, I am a 2nd year undergraduate student who did the summer program in Koc University. I am yet recieve my reimbursement for the expenses that are to be covered by the Uni.
+When can I collect it?
+Best Regards
+Adarsh G</t>
+  </si>
+  <si>
+    <t>Kirdaar Travel Reimbursement</t>
+  </si>
+  <si>
+    <t>Sir/Madam, I have been given the responsibility of collecting the travel reimbursement for the competetion in Goa. By when can I expect the reimbursement and where do I collect it?
+Thanks
+Regards
+Arpit K</t>
+  </si>
+  <si>
+    <t>Trekking gear reimbursement</t>
+  </si>
+  <si>
+    <t>Hi, I am heading the trekking and mountaineering club. We had been informed that the amount for the purchase of trekking gear would be reimbursed. I have not recieved the money yet.
+Could you let me know by when I can collect it?
+Thank you
+Warm Regards
+Shrini</t>
+  </si>
+  <si>
+    <t>Food and Accomodation money</t>
+  </si>
+  <si>
+    <t>Sir, I am speaking in behalf of the Dance Society. We are yet to recieve the money for the food and accomodation which was promised to us for our stay in Bangalore. Kindly let us know by when we can collect it.
+Yours Thankfully
+Monika R</t>
+  </si>
+  <si>
+    <t>Wifi Connection Lost</t>
+  </si>
+  <si>
+    <t>Hi, I stay on the 6th floor of SH-2 residence. I have not been able to connect to the wifi for 2 hours now. Can you please help fix this asap.
+Thank you
+Gauri R</t>
+  </si>
+  <si>
+    <t>WIFI not connecting</t>
+  </si>
+  <si>
+    <t>Dear Sir/ma'am, My laptop has not able to connect to the student wifi namely 'Ashoka Student' for some time now. Can you please help me fix this.
+Thanks
+Regards
+Vinayak</t>
+  </si>
+  <si>
+    <t>Wifi Outage</t>
+  </si>
+  <si>
+    <t>Hi, The wifi outage was scheduled for 4 hours from 10 AM to 2 PM, but the wifi is still down. It has been 3 hours since it was expected to have returned.
+Please look into it.
+Regards
+Raghav</t>
+  </si>
+  <si>
+    <t>Wifi not appearing</t>
+  </si>
+  <si>
+    <t>Dear IT, None of the wifi SSID's seem to be appearing while trying to connect. Is the wifi down? Please fix it as soon as possible.
+Thank you
+Heer Shah</t>
+  </si>
+  <si>
+    <t>Login details incorrect</t>
+  </si>
+  <si>
+    <t>Hi, My login details are not working anymore. My old password gives the 'incorrect password' error. How can I get my old password changed?
+Thanks
+Shriya R</t>
+  </si>
+  <si>
+    <t>Internet Login Issue</t>
+  </si>
+  <si>
+    <t>Dear Sir, My password keeps on getting changed everytime I change it. I think another person in my batch is using the same user ID. Is there a way I can get my login details changed?
+Regards
+Prabir Joy</t>
+  </si>
+  <si>
+    <t>Wifi login details</t>
+  </si>
+  <si>
+    <t>IT, I am yet to recieve my login details to connect to the wifi. By when can I recieve it? Let me know as soon as possible.
+Thanks
+Astha G</t>
+  </si>
+  <si>
+    <t>Maximum login limit</t>
+  </si>
+  <si>
+    <t>Sir/Madam, when I put in my login details, it gives me maximum login limit reached. I have a feeling someone else is also using my account. How can I change the password?
+Thanks
+Brijesh T</t>
+  </si>
+  <si>
+    <t>Clicker for class</t>
+  </si>
+  <si>
+    <t>Hi, I need a clicker for the projector. My class begins at 4:30 pm today. When and where can I collect it?
+Thanks
+Damien C</t>
+  </si>
+  <si>
+    <t>Clicker not working</t>
+  </si>
+  <si>
+    <t>Hi, The clicker provided in classroom AC-006 is not functioning. Please provide me another one.
+Regards
+Divij</t>
+  </si>
+  <si>
+    <t>Presentation remote not working</t>
+  </si>
+  <si>
+    <t>Sir/Madam, The projector remote is not working. I suspect it is low on battery, where can I collect another one?
+Regards
+Sid</t>
+  </si>
+  <si>
+    <t>Projector Clicker missing</t>
+  </si>
+  <si>
+    <t>Hi, I had requested for a projector clicker. The one provided has unfortunately gone missing. Where can I get another one? Let me know as soon as possible.
+Regards
+Sanchit B</t>
+  </si>
+  <si>
+    <t>Dear Sir/Ma'am, We had a movie screening as a part of course work, but the speakers in class don't seem to be working. Can you send someone over to check it out?
+Many Thanks
+Saddam</t>
+  </si>
+  <si>
+    <t>Projector not connecting</t>
+  </si>
+  <si>
+    <t>Hi, The projector at classroom TR-104 is not connecting to the laptop. Can you please send someone over immediately.
+Thank you
+Anuja</t>
+  </si>
+  <si>
+    <t>Projector problems</t>
+  </si>
+  <si>
+    <t>Hi, I was using the projector for my lecture. It was working just fine, but suddenly switched off. It is not turning back on. Can you send someone to look into it.
+Regards
+Jatin</t>
+  </si>
+  <si>
+    <t>Smartboard screen issues</t>
+  </si>
+  <si>
+    <t>Dear Sir/Madam, The smart board in TR-203 is malfunctioning. Half the screen appears black. Hope to see someone fix this soon.
+Thanks
+Regards
+Yashna</t>
+  </si>
+  <si>
+    <t>Lost ID card</t>
+  </si>
+  <si>
+    <t>Hey, I lost my ID card 2 days ago. I am requesting you to block it for now until I get my new card issued.
+Thanks
+Regards
+Shivangi</t>
+  </si>
+  <si>
+    <t>ID card not scanning</t>
+  </si>
+  <si>
+    <t>Sir/Ma'am, My ID card stopped working a week back. It no longer gets scanned, I think the chip has worn off. Where can I get it replaced.
+Regards
+santosh</t>
+  </si>
+  <si>
+    <t>Misplaced ID card</t>
+  </si>
+  <si>
+    <t>Hi, I have misplaced my ID card. Where can I procure a new ID card. I hope this is possible.
+Thanks
+Warm Regards
+Ashutosh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -417,113 +917,392 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="123.785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.1734693877551"/>
+    <col min="1" max="1" width="31.33203125"/>
+    <col min="2" max="2" width="123.77734375"/>
+    <col min="3" max="1025" width="14.21875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +1314,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -557,7 +1336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -568,7 +1347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -579,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -590,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -601,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -612,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -623,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -634,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -645,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -656,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -667,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -678,7 +1457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -689,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -700,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -711,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -722,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -733,7 +1512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -744,7 +1523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -755,7 +1534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -766,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -777,7 +1556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -788,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -799,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -810,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -821,7 +1600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -832,7 +1611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -843,7 +1622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -854,7 +1633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -865,7 +1644,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -876,7 +1655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -887,7 +1666,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -898,7 +1677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -909,7 +1688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -920,7 +1699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -931,7 +1710,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -942,7 +1721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -953,7 +1732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -964,7 +1743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -975,7 +1754,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -986,7 +1765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -997,7 +1776,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -1008,7 +1787,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -1019,7 +1798,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
@@ -1030,7 +1809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -1041,7 +1820,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -1052,7 +1831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -1063,7 +1842,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -1074,7 +1853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -1085,7 +1864,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -1096,7 +1875,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -1107,7 +1886,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -1118,7 +1897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
@@ -1129,7 +1908,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
@@ -1140,7 +1919,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>114</v>
       </c>
@@ -1151,7 +1930,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
@@ -1162,7 +1941,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
@@ -1173,7 +1952,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -1184,7 +1963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
@@ -1195,13 +1974,666 @@
         <v>5</v>
       </c>
     </row>
+    <row r="62" spans="1:3" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="478">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -1260,6 +1260,354 @@
   </si>
   <si>
     <t xml:space="preserve">Dear sir, I have to meet Dean Vanita for the slot 4pm , can you please inform her and book the LR 106 for our interview. Thanks Sanchit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, Can you please specify till when will the wifi be disfunctional? Warm Regards, Samarth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi not Working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear IT team, The wifi has not been working on the 4th floor of SH2 since morning. It is my sincere request if you could fix the issue. Best, Ashna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi connectivity error in Motorola Phones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, The wifi is not connecting to my phone. I have a Moto G3. Kindly let me know how can I connet my phone to WiFi. Thank you. Warm Regards, Krathika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot connect Moto G4 to Wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear IT team, The wifi has not been working on my motorola G4 phone. Other students who have motorola phones also are facing a similar problem. It is my sincere request if you could resolve the issue at the earliest. Best, Vinayak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicker needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey, Professor Jhanwar requires a clicker in class LR010 at 4:30pm today. Thank you. Best Regards, Akshay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakers not working in LR005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi, The speakers in LR110 are malfunctioning. The professor is facing difficulty in speaking without the mic. Can you please send someone urgently to solve the issue? Best, Sanchit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projector not displaying PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir, The projector is not displaying the ppt in the classroom. Please send someone to Tr006 to resolve the problem. Thank you. Warm Regards, Vinayak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicker not connecting with laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey, The clicker we have in class (LR 201) is not syncing with the laptop. The professor has a Macbook Air. Kindly check if we need a different clicker model. Regards, Sharad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicker batteries required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear IT, It appears that the ckicker we are using is out of batteries. There is no signal response to any button we press. Kindly send someone to LR 002 to replace the batteries. Thank you. Regards, Johanne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicker required for Seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear IT, The history society is conducting a seminar in the auditorium today. We shall be needing two clickers for the same. Please arrange for two clickers in the Auditorium by tomorrow. Thank you. Best, History Society.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to login to Wifi network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey, I am unable to login to Wifi due to password error. However, I have not changed my password. Kindly look into the problem. Warm Regards, Varsha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot login to wifi on laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi, My wifi login limit has reached due to which I am not able to login on my laptop. Can you please reset the devices I have logged into from my id? Thank you. Regards, Ayushree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi login password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, I wanted to change the password for my wifi login. Kindly let me know how to go about it. Thanks. Ajay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear IT team, I am unable access the wifi due to some password change. However, I have not made this change. Please help me out. Best, Prerna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, I have reached the maximum login limit on my wifi id. Kindly help me regain access. Thanks. Aakash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collar microphones required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear IT, Proffesor Kelly wants a collar micrphone for class. Please provide the needful. Thanks, Jeeva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block ID card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir, My ID card has been blocked. Can you please check what the reason is so that I can purchase food coupons? Warm Regards, Kamchan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID card not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear IT team, I have not been able to purchase food coupons using my ID card. KIndly let me know what the issue is. Best, Ujjawal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear IT, Can students use their ID cards to mark attendance for classes in ID card reader? With regards, Shourya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend deadline to get ID cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, I am out for this weekend due to family committments. Is there any possibility of extending the deadline to get ID cards by one day? Regards, Shweta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload photograph on LMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear IT, Do we have to upload a passport siz photograph or any size would work on the LMS? Thanks. Best, Shambhavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, I would like to drop out of my intro to maths course Mat-201. Thank you. Best, Shawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, I wanted to know what is the minimum number of courses we need to take this semester,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop sixth course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, I had opted for 6 courses this semester. However i have finally decided to opt out of the Literature theory course. Please do the same. Best, Pranav.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courses undertaken not updated on LMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, The courses I have changed have not been updated on the LMS. Pleas update accordingly. Warm Regards, Rishika.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opt for sixth course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Ma'am, I am doing a double major for which it is imperative that I take six courses this semester. Please let me know if that would be possible. Thanking you, Aakash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courses clashing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, This is to bring to your notice that a lot of the CS students are taking the Linear Algaebra course, but it is clashing with their Computer Networks class. It is my sincere request on behalf of all of us if you could resolve the issue. Warm Regards, Jatin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request for change in course timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, It is my sincere request if you could change the course timings of the Databses course from Saturday to a weekday. Classes on weekends do not draw a lot of attendance or interest. Thank you. Best, Aakanksha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course timings for monsoon semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, Can you please share the course timings so that we can check if any courses are clashing? Thank you. Regards, Yash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revised course timings for monsoon semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, The excel sheet which you have shared with the revised timings is not accessible. PLease make it accesssible to the students. Warm regards, Isha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS course timings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, I wanted to know when the DS timings and registrations shall open for monsoon semester? Regards, Yasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course offerings - Summer semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, When will the courses being offerred for summer semester be released to the students. We all need it to plan our summer. Warm regards, Jyotica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey for Summer semeseter courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, Are the courses mentioned in the survey an exhaustive list of the courses being offered this semester or are we going to be offerred other courses too? thanks. Warm regards, Swasti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS courses for Spring semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, When wil the list of CS courses offered next semester be available on the lms? Best, Shaan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional course being offered in Economics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, A few of the third year students were curios if they were going to be offered another 300 level course in economics this semester. Kindly let us know if and when. Warm regards, Josh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-curriculars schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, Please release the Co-curriculars schedule as a lot of us have to decide between sports and co-curriculars. Warm regards, Anodya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS clash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Ma'am, The DS sessions for my trends in history course clash with my CS classes on Friday. Kindly let me know if there can be a change in the timigs. Regards, Prerna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend deadline to register for ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, Kindly extend the deadline to register for DS as a lot of us are travelling and would not have internet connection. Warm Regards, Jyoti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS not loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, The lms is not loading. We are unabe to register for our courses. Kindly resolve the issue. Thank you. Best, Palomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, The LMS is not saving the courses I am opting for. As a result, I have missed out on a few courses I had to register for. Please resolve the issue at the earliest. Thanking you. Best Regards, Ashna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, The music society wanted to book MR003 for practise from 6pm to 8pm today. Kindly acknowledge the same. Best, Vistaar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Room Booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL, Due to increase in the participation for the workshop, we want to change our room booking from LR004 to LR110. Please grant us the requested change at the earliest. Thank you. Regards, CS-SOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Room Booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL Team, The Art society would like to book the meeting room 001 for 3rd and 4th October for our Art exhibition. Thank you. Regards, Art Soc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Booking Clash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, LR201 has been accidentally allotted to both the CS society and the debating society. Please allot another room to the Debating society. Warm Regards, Debsoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy for room booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL, Ashoka is going to host Banjaara soon and we shall need a lot of rooms for the same. We wanted what the policy is for room bookings and by when should we inform you regarding the same. Thanks. Best, Pramath.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel Booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL Team, It is our sincere request if you could cancel our scheduled booking TR005 for today. We apologize for the incovenience caused. Thank you. Best Regards, Joshi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking Cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, Our booking of LR210 has been accidentally cancelled. However, we have not requested for the same. Kindly reallot our booking. Best, Tarini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Booking Cancellation Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL, Please let us know what the policy if for cancelling a room booking. We have booked 10 rooms for our event. It is highly probable that we might not need all of them. Thanking you. Regards, Lavanya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL, Kindly let us know what is the meeting schedule with the Banjaara HoDs. Warm regards, Banjaara Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeeting Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, I wanted to meet you regarding the Onam festivities which a few of us wanted to organize next week. Please et us know when a meeting would be possible. Thank you. Regards, Gokul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Showcase meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Ma'am, We wanted to when do we have a meeting to discuss the theme of this year's club showcase. Best Regards, Cultural Ministry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Showcase Reimbursements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL, Please find attached the student expenditure sheet for reimbursements. Kindly let us know by when shall the money be transferred to the listed students. Regards, Jazbaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawn Tennis Tournament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Ma'am/Sir, Kindly let us know how we can get reimbursements for our expenditure throughout the tournament. Thank you. With Regards, Lawn Tennis Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Reimbursements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL, The students who have set up stalls in dorm olympics wanted to know if they shall be reimburesed for their expenses incurred in purchasing Stationary, chart paper and other decorative items. Thanks. Best, Manjari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Reimbursement value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL team, As you know, the frisbee team is going to lucknow for a national tournament. Their expenses per person, including stay , travel and food is ammounting to 5000 rupees. Kindly let us know how much money will the university be willing to reimburse for the tournament. Thank you. Warm regards, Akhilesh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reschedule Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, It is my sincere request if you can postpone today's meeting at 5pm to tomorrow. I have not been keeping well and so would not be able to come for the meeting. Best Regards, Aradhita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel today's meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OSL, It is our humbe request if you could cancel today's meeting as most of the members are not on campus due to the long weekend. Thank you. Warm regards, Cultural Ministry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline to opt for a course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir/Ma'am, When is the deadline for opting in a course for the monsoon semester? Thank you. Regards, Tanvi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch Professor for Mind and Behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, It is my sincere request if I could switch to Professor Kranti's course from Professor Scott's Mind and Behavior course. Thanking you, Vinayak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear OAA, Will it be possible for me to take another course apart from 5 courses and a co-curricular this semester. I just realized I need to take the PHI-302 course inorder to complete my minor in three years. Kindly let me know if it is possible. Warm Regards, Prashanth</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1301,6 +1649,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1308,8 +1662,15 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1376,7 +1737,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1389,19 +1750,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1482,17 +1847,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B121" activeCellId="0" sqref="B121"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C241" activeCellId="0" sqref="A1:C241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="123.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="14.22"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="122.301020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="14.0408163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,7 +1870,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -1738,8 +2103,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1914,11 +2279,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1936,8 +2301,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+    <row r="41" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2057,8 +2422,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+    <row r="52" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2068,8 +2433,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+    <row r="53" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2112,11 +2477,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2145,8 +2510,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+    <row r="60" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2167,1328 +2532,1988 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+    <row r="62" customFormat="false" ht="54.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="C62" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="C63" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
+      <c r="C65" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
+      <c r="C66" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="74.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="s">
+      <c r="C67" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
+      <c r="C70" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="s">
+      <c r="C71" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
+      <c r="C73" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
+      <c r="C74" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
+      <c r="C75" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
+      <c r="C77" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
+      <c r="C78" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
+      <c r="C79" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="s">
+      <c r="C80" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
+      <c r="C81" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
+      <c r="C82" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="s">
+      <c r="C83" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
+      <c r="C84" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
+      <c r="C85" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
+      <c r="C86" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
+      <c r="C87" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
+      <c r="C88" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="s">
+      <c r="C89" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
+      <c r="C90" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
+      <c r="C91" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="54.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
+      <c r="C92" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="54.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
+      <c r="C93" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
+      <c r="C94" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
+      <c r="C95" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="54.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="74.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
+      <c r="C96" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
+      <c r="C97" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
+      <c r="C98" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="54.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="s">
+      <c r="C99" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="54.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="74.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="s">
+      <c r="C100" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
+      <c r="C101" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
+      <c r="C102" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
+      <c r="C103" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="61.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
+      <c r="C104" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
+      <c r="C105" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
+      <c r="C106" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="s">
+      <c r="C107" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5" t="s">
+      <c r="C108" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="s">
+      <c r="C109" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="s">
+      <c r="C110" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="s">
+      <c r="C111" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5" t="s">
+      <c r="C112" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="s">
+      <c r="C113" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5" t="s">
+      <c r="C114" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5" t="s">
+      <c r="C115" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="5" t="s">
+      <c r="C116" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5" t="s">
+      <c r="C117" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5" t="s">
+      <c r="C118" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="5" t="s">
+      <c r="C119" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="49.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="5" t="s">
+      <c r="C120" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="s">
+      <c r="C121" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6" t="s">
+      <c r="C122" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="s">
+      <c r="C123" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6" t="s">
+      <c r="C124" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6" t="s">
+      <c r="C125" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6" t="s">
+      <c r="C126" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6" t="s">
+      <c r="C127" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6" t="s">
+      <c r="C128" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6" t="s">
+      <c r="C129" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="s">
+      <c r="C130" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6" t="s">
+      <c r="C131" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6" t="s">
+      <c r="C132" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="s">
+      <c r="C133" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6" t="s">
+      <c r="C134" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="s">
+      <c r="C135" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6" t="s">
+      <c r="C136" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6" t="s">
+      <c r="C137" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="s">
+      <c r="C138" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
+      <c r="C139" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="s">
+      <c r="C140" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="s">
+      <c r="C141" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="s">
+      <c r="C142" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
+      <c r="C143" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="s">
+      <c r="C144" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="s">
+      <c r="C145" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6" t="s">
+      <c r="C146" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6" t="s">
+      <c r="C147" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6" t="s">
+      <c r="C148" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6" t="s">
+      <c r="C149" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6" t="s">
+      <c r="C150" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6" t="s">
+      <c r="C151" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6" t="s">
+      <c r="C152" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6" t="s">
+      <c r="C153" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6" t="s">
+      <c r="C154" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6" t="s">
+      <c r="C155" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6" t="s">
+      <c r="C156" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6" t="s">
+      <c r="C157" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6" t="s">
+      <c r="C158" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6" t="s">
+      <c r="C159" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6" t="s">
+      <c r="C160" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6" t="s">
+      <c r="C161" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6" t="s">
+      <c r="C162" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6" t="s">
+      <c r="C163" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6" t="s">
+      <c r="C164" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6" t="s">
+      <c r="C165" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6" t="s">
+      <c r="C166" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6" t="s">
+      <c r="C167" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6" t="s">
+      <c r="C168" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6" t="s">
+      <c r="C169" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6" t="s">
+      <c r="C170" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="s">
+      <c r="C171" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6" t="s">
+      <c r="C172" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6" t="s">
+      <c r="C173" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6" t="s">
+      <c r="C174" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6" t="s">
+      <c r="C175" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6" t="s">
+      <c r="C176" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6" t="s">
+      <c r="C177" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6" t="s">
+      <c r="C178" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6" t="s">
+      <c r="C179" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6" t="s">
+      <c r="C180" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>87</v>
+      <c r="C181" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
